--- a/Estimation_Records/loss 25 sphoradic/1MB loss 25.xlsx
+++ b/Estimation_Records/loss 25 sphoradic/1MB loss 25.xlsx
@@ -1,24 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Technion\CommunicationProject\LCCN_Delay_Bit_RTT_Estimator\Estimation_Records\loss 25 sphoradic\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Technion\semester8\delayBit\LCCN_Delay_Bit_RTT_Estimator\Estimation_Records\loss 25 sphoradic\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62364F78-414C-447D-9A79-2BE14B086C3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2110D27D-6F0D-4197-92F4-0C98C51F6F44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{F879301E-08CA-4326-8C5D-3530C81BCC3F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId2"/>
-  </externalReferences>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,9 +23,12 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="9">
   <si>
     <t>SERVER TO CLIENT:</t>
   </si>
@@ -61,12 +61,15 @@
   <si>
     <t>CLIENT TO SERVER:</t>
   </si>
+  <si>
+    <t>25% Sphoradic Loss</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -77,6 +80,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FF212529"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -102,9 +112,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -198,7 +209,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="LID4096"/>
+          <a:endParaRPr lang="en-IL"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -3330,7 +3341,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="LID4096"/>
+              <a:endParaRPr lang="en-IL"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -3368,7 +3379,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="LID4096"/>
+            <a:endParaRPr lang="en-IL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="519209311"/>
@@ -3454,7 +3465,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="LID4096"/>
+              <a:endParaRPr lang="en-IL"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -3492,7 +3503,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="LID4096"/>
+            <a:endParaRPr lang="en-IL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="519198911"/>
@@ -3534,7 +3545,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="LID4096"/>
+          <a:endParaRPr lang="en-IL"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -3571,7 +3582,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="LID4096"/>
+      <a:endParaRPr lang="en-IL"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3658,7 +3669,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="LID4096"/>
+          <a:endParaRPr lang="en-IL"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -6800,7 +6811,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="LID4096"/>
+              <a:endParaRPr lang="en-IL"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -6838,7 +6849,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="LID4096"/>
+            <a:endParaRPr lang="en-IL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="519209311"/>
@@ -6924,7 +6935,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="LID4096"/>
+              <a:endParaRPr lang="en-IL"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -6962,7 +6973,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="LID4096"/>
+            <a:endParaRPr lang="en-IL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="519198911"/>
@@ -7004,7 +7015,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="LID4096"/>
+          <a:endParaRPr lang="en-IL"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -7041,7 +7052,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="LID4096"/>
+      <a:endParaRPr lang="en-IL"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -8176,8 +8187,8 @@
     <xdr:to>
       <xdr:col>22</xdr:col>
       <xdr:colOff>563880</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8214,8 +8225,8 @@
     <xdr:to>
       <xdr:col>22</xdr:col>
       <xdr:colOff>312420</xdr:colOff>
-      <xdr:row>497</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
+      <xdr:row>502</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8243,1508 +8254,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Sheet1"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="8">
-          <cell r="B8">
-            <v>0.41795399999999994</v>
-          </cell>
-          <cell r="C8">
-            <v>398.21800000000002</v>
-          </cell>
-          <cell r="G8">
-            <v>0.44938600000000051</v>
-          </cell>
-          <cell r="H8">
-            <v>31.431999999999999</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="B9">
-            <v>0.44938600000000051</v>
-          </cell>
-          <cell r="C9">
-            <v>31.431999999999999</v>
-          </cell>
-          <cell r="G9">
-            <v>0.47945100000000096</v>
-          </cell>
-          <cell r="H9">
-            <v>30.064</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="B10">
-            <v>0.47945100000000096</v>
-          </cell>
-          <cell r="C10">
-            <v>30.064</v>
-          </cell>
-          <cell r="G10">
-            <v>0.49308500000000066</v>
-          </cell>
-          <cell r="H10">
-            <v>13.635</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="B11">
-            <v>0.49308500000000066</v>
-          </cell>
-          <cell r="C11">
-            <v>13.635</v>
-          </cell>
-          <cell r="G11">
-            <v>0.50810200000000094</v>
-          </cell>
-          <cell r="H11">
-            <v>15.016</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="B12">
-            <v>0.50810200000000094</v>
-          </cell>
-          <cell r="C12">
-            <v>15.016</v>
-          </cell>
-          <cell r="G12">
-            <v>0.526841000000001</v>
-          </cell>
-          <cell r="H12">
-            <v>18.739999999999998</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="B13">
-            <v>0.526841000000001</v>
-          </cell>
-          <cell r="C13">
-            <v>18.739999999999998</v>
-          </cell>
-          <cell r="G13">
-            <v>0.54192600000000013</v>
-          </cell>
-          <cell r="H13">
-            <v>15.085000000000001</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="B14">
-            <v>0.54192600000000013</v>
-          </cell>
-          <cell r="C14">
-            <v>15.085000000000001</v>
-          </cell>
-          <cell r="G14">
-            <v>0.55505400000000016</v>
-          </cell>
-          <cell r="H14">
-            <v>13.127000000000001</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="B15">
-            <v>0.55505400000000016</v>
-          </cell>
-          <cell r="C15">
-            <v>13.127000000000001</v>
-          </cell>
-          <cell r="G15">
-            <v>0.57339200000000012</v>
-          </cell>
-          <cell r="H15">
-            <v>18.338999999999999</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="B16">
-            <v>0.57339200000000012</v>
-          </cell>
-          <cell r="C16">
-            <v>18.338999999999999</v>
-          </cell>
-          <cell r="G16">
-            <v>0.58991100000000074</v>
-          </cell>
-          <cell r="H16">
-            <v>16.518000000000001</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="B17">
-            <v>0.58991100000000074</v>
-          </cell>
-          <cell r="C17">
-            <v>16.518000000000001</v>
-          </cell>
-          <cell r="G17">
-            <v>0.60449600000000103</v>
-          </cell>
-          <cell r="H17">
-            <v>14.585000000000001</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="B18">
-            <v>0.60449600000000103</v>
-          </cell>
-          <cell r="C18">
-            <v>14.585000000000001</v>
-          </cell>
-          <cell r="G18">
-            <v>0.61873200000000139</v>
-          </cell>
-          <cell r="H18">
-            <v>14.237</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="B19">
-            <v>0.61873200000000139</v>
-          </cell>
-          <cell r="C19">
-            <v>14.237</v>
-          </cell>
-          <cell r="G19">
-            <v>0.63238600000000034</v>
-          </cell>
-          <cell r="H19">
-            <v>13.653</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="B20">
-            <v>0.63180100000000117</v>
-          </cell>
-          <cell r="C20">
-            <v>13.069000000000001</v>
-          </cell>
-          <cell r="G20">
-            <v>0.64855200000000046</v>
-          </cell>
-          <cell r="H20">
-            <v>16.167000000000002</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="B21">
-            <v>0.64533700000000138</v>
-          </cell>
-          <cell r="C21">
-            <v>13.536</v>
-          </cell>
-          <cell r="G21">
-            <v>0.66461900000000007</v>
-          </cell>
-          <cell r="H21">
-            <v>16.067</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="B22">
-            <v>0.66461900000000007</v>
-          </cell>
-          <cell r="C22">
-            <v>19.282</v>
-          </cell>
-          <cell r="G22">
-            <v>0.68048200000000136</v>
-          </cell>
-          <cell r="H22">
-            <v>15.863</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="B23">
-            <v>0.68048200000000136</v>
-          </cell>
-          <cell r="C23">
-            <v>15.863</v>
-          </cell>
-          <cell r="G23">
-            <v>0.69944200000000123</v>
-          </cell>
-          <cell r="H23">
-            <v>18.96</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="B24">
-            <v>0.69761800000000029</v>
-          </cell>
-          <cell r="C24">
-            <v>17.135000000000002</v>
-          </cell>
-          <cell r="G24">
-            <v>0.73168400000000133</v>
-          </cell>
-          <cell r="H24">
-            <v>32.241</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="B25">
-            <v>0.71757400000000082</v>
-          </cell>
-          <cell r="C25">
-            <v>19.957000000000001</v>
-          </cell>
-          <cell r="G25">
-            <v>0.74560500000000118</v>
-          </cell>
-          <cell r="H25">
-            <v>13.920999999999999</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="B26">
-            <v>0.73168400000000133</v>
-          </cell>
-          <cell r="C26">
-            <v>14.109</v>
-          </cell>
-          <cell r="G26">
-            <v>0.76211100000000087</v>
-          </cell>
-          <cell r="H26">
-            <v>16.507000000000001</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="B27">
-            <v>0.74560500000000118</v>
-          </cell>
-          <cell r="C27">
-            <v>13.920999999999999</v>
-          </cell>
-          <cell r="G27">
-            <v>0.77560700000000082</v>
-          </cell>
-          <cell r="H27">
-            <v>13.496</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="B28">
-            <v>0.76211100000000087</v>
-          </cell>
-          <cell r="C28">
-            <v>16.507000000000001</v>
-          </cell>
-          <cell r="G28">
-            <v>0.78984600000000071</v>
-          </cell>
-          <cell r="H28">
-            <v>14.238</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="B29">
-            <v>0.77560700000000082</v>
-          </cell>
-          <cell r="C29">
-            <v>13.496</v>
-          </cell>
-          <cell r="G29">
-            <v>0.80489999999999995</v>
-          </cell>
-          <cell r="H29">
-            <v>15.054</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="B30">
-            <v>0.78984600000000071</v>
-          </cell>
-          <cell r="C30">
-            <v>14.238</v>
-          </cell>
-          <cell r="G30">
-            <v>0.82107099999999988</v>
-          </cell>
-          <cell r="H30">
-            <v>16.172000000000001</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="B31">
-            <v>0.80489999999999995</v>
-          </cell>
-          <cell r="C31">
-            <v>15.054</v>
-          </cell>
-          <cell r="G31">
-            <v>0.83443100000000037</v>
-          </cell>
-          <cell r="H31">
-            <v>13.36</v>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="B32">
-            <v>0.82107099999999988</v>
-          </cell>
-          <cell r="C32">
-            <v>16.172000000000001</v>
-          </cell>
-          <cell r="G32">
-            <v>0.85098699999999994</v>
-          </cell>
-          <cell r="H32">
-            <v>16.555</v>
-          </cell>
-        </row>
-        <row r="33">
-          <cell r="B33">
-            <v>0.83443100000000037</v>
-          </cell>
-          <cell r="C33">
-            <v>13.36</v>
-          </cell>
-          <cell r="G33">
-            <v>0.87057000000000073</v>
-          </cell>
-          <cell r="H33">
-            <v>19.584</v>
-          </cell>
-        </row>
-        <row r="34">
-          <cell r="B34">
-            <v>0.85098699999999994</v>
-          </cell>
-          <cell r="C34">
-            <v>16.555</v>
-          </cell>
-          <cell r="G34">
-            <v>0.89912700000000001</v>
-          </cell>
-          <cell r="H34">
-            <v>28.556000000000001</v>
-          </cell>
-        </row>
-        <row r="35">
-          <cell r="B35">
-            <v>0.87057000000000073</v>
-          </cell>
-          <cell r="C35">
-            <v>19.584</v>
-          </cell>
-          <cell r="G35">
-            <v>0.91359900000000138</v>
-          </cell>
-          <cell r="H35">
-            <v>14.472</v>
-          </cell>
-        </row>
-        <row r="36">
-          <cell r="B36">
-            <v>0.89716899999999988</v>
-          </cell>
-          <cell r="C36">
-            <v>26.599</v>
-          </cell>
-          <cell r="G36">
-            <v>0.93007099999999987</v>
-          </cell>
-          <cell r="H36">
-            <v>16.472999999999999</v>
-          </cell>
-        </row>
-        <row r="37">
-          <cell r="B37">
-            <v>0.91359900000000138</v>
-          </cell>
-          <cell r="C37">
-            <v>16.428999999999998</v>
-          </cell>
-          <cell r="G37">
-            <v>0.95414700000000074</v>
-          </cell>
-          <cell r="H37">
-            <v>24.076000000000001</v>
-          </cell>
-        </row>
-        <row r="38">
-          <cell r="B38">
-            <v>0.93007099999999987</v>
-          </cell>
-          <cell r="C38">
-            <v>16.472999999999999</v>
-          </cell>
-          <cell r="G38">
-            <v>0.96868599999999994</v>
-          </cell>
-          <cell r="H38">
-            <v>14.539</v>
-          </cell>
-        </row>
-        <row r="39">
-          <cell r="B39">
-            <v>0.95414700000000074</v>
-          </cell>
-          <cell r="C39">
-            <v>24.076000000000001</v>
-          </cell>
-          <cell r="G39">
-            <v>0.99880300000000055</v>
-          </cell>
-          <cell r="H39">
-            <v>30.117000000000001</v>
-          </cell>
-        </row>
-        <row r="40">
-          <cell r="B40">
-            <v>0.96868599999999994</v>
-          </cell>
-          <cell r="C40">
-            <v>14.539</v>
-          </cell>
-          <cell r="G40">
-            <v>1.0294430000000006</v>
-          </cell>
-          <cell r="H40">
-            <v>30.638999999999999</v>
-          </cell>
-        </row>
-        <row r="41">
-          <cell r="B41">
-            <v>0.99880300000000055</v>
-          </cell>
-          <cell r="C41">
-            <v>30.117000000000001</v>
-          </cell>
-          <cell r="G41">
-            <v>1.0589070000000014</v>
-          </cell>
-          <cell r="H41">
-            <v>29.463999999999999</v>
-          </cell>
-        </row>
-        <row r="42">
-          <cell r="B42">
-            <v>1.0294430000000006</v>
-          </cell>
-          <cell r="C42">
-            <v>30.638999999999999</v>
-          </cell>
-          <cell r="G42">
-            <v>1.0990110000000008</v>
-          </cell>
-          <cell r="H42">
-            <v>40.103999999999999</v>
-          </cell>
-        </row>
-        <row r="43">
-          <cell r="B43">
-            <v>1.0589070000000014</v>
-          </cell>
-          <cell r="C43">
-            <v>29.463999999999999</v>
-          </cell>
-          <cell r="G43">
-            <v>1.1173359999999999</v>
-          </cell>
-          <cell r="H43">
-            <v>18.324999999999999</v>
-          </cell>
-        </row>
-        <row r="44">
-          <cell r="B44">
-            <v>1.0967929999999999</v>
-          </cell>
-          <cell r="C44">
-            <v>37.887</v>
-          </cell>
-          <cell r="G44">
-            <v>1.1341910000000013</v>
-          </cell>
-          <cell r="H44">
-            <v>16.855</v>
-          </cell>
-        </row>
-        <row r="45">
-          <cell r="B45">
-            <v>1.1141970000000008</v>
-          </cell>
-          <cell r="C45">
-            <v>17.402999999999999</v>
-          </cell>
-          <cell r="G45">
-            <v>1.148670000000001</v>
-          </cell>
-          <cell r="H45">
-            <v>14.478999999999999</v>
-          </cell>
-        </row>
-        <row r="46">
-          <cell r="B46">
-            <v>1.1341910000000013</v>
-          </cell>
-          <cell r="C46">
-            <v>19.994</v>
-          </cell>
-          <cell r="G46">
-            <v>1.1753309999999999</v>
-          </cell>
-          <cell r="H46">
-            <v>26.661999999999999</v>
-          </cell>
-        </row>
-        <row r="47">
-          <cell r="B47">
-            <v>1.148670000000001</v>
-          </cell>
-          <cell r="C47">
-            <v>14.478999999999999</v>
-          </cell>
-          <cell r="G47">
-            <v>1.1987190000000005</v>
-          </cell>
-          <cell r="H47">
-            <v>23.387</v>
-          </cell>
-        </row>
-        <row r="48">
-          <cell r="B48">
-            <v>1.1753309999999999</v>
-          </cell>
-          <cell r="C48">
-            <v>26.661999999999999</v>
-          </cell>
-          <cell r="G48">
-            <v>1.2093360000000004</v>
-          </cell>
-          <cell r="H48">
-            <v>10.617000000000001</v>
-          </cell>
-        </row>
-        <row r="49">
-          <cell r="B49">
-            <v>1.1987190000000005</v>
-          </cell>
-          <cell r="C49">
-            <v>23.387</v>
-          </cell>
-          <cell r="G49">
-            <v>1.2278160000000007</v>
-          </cell>
-          <cell r="H49">
-            <v>18.481000000000002</v>
-          </cell>
-        </row>
-        <row r="50">
-          <cell r="B50">
-            <v>1.2093360000000004</v>
-          </cell>
-          <cell r="C50">
-            <v>10.617000000000001</v>
-          </cell>
-          <cell r="G50">
-            <v>1.2426820000000003</v>
-          </cell>
-          <cell r="H50">
-            <v>14.865</v>
-          </cell>
-        </row>
-        <row r="51">
-          <cell r="B51">
-            <v>1.2278160000000007</v>
-          </cell>
-          <cell r="C51">
-            <v>18.481000000000002</v>
-          </cell>
-          <cell r="G51">
-            <v>1.256234000000001</v>
-          </cell>
-          <cell r="H51">
-            <v>13.552</v>
-          </cell>
-        </row>
-        <row r="52">
-          <cell r="B52">
-            <v>1.2399700000000013</v>
-          </cell>
-          <cell r="C52">
-            <v>12.153</v>
-          </cell>
-          <cell r="G52">
-            <v>1.2790809999999997</v>
-          </cell>
-          <cell r="H52">
-            <v>22.847999999999999</v>
-          </cell>
-        </row>
-        <row r="53">
-          <cell r="B53">
-            <v>1.256234000000001</v>
-          </cell>
-          <cell r="C53">
-            <v>16.263999999999999</v>
-          </cell>
-          <cell r="G53">
-            <v>1.3151200000000003</v>
-          </cell>
-          <cell r="H53">
-            <v>36.037999999999997</v>
-          </cell>
-        </row>
-        <row r="54">
-          <cell r="B54">
-            <v>1.2790809999999997</v>
-          </cell>
-          <cell r="C54">
-            <v>22.847999999999999</v>
-          </cell>
-          <cell r="G54">
-            <v>1.3417070000000013</v>
-          </cell>
-          <cell r="H54">
-            <v>26.587</v>
-          </cell>
-        </row>
-        <row r="55">
-          <cell r="B55">
-            <v>1.3151200000000003</v>
-          </cell>
-          <cell r="C55">
-            <v>36.037999999999997</v>
-          </cell>
-          <cell r="G55">
-            <v>1.356439</v>
-          </cell>
-          <cell r="H55">
-            <v>14.733000000000001</v>
-          </cell>
-        </row>
-        <row r="56">
-          <cell r="B56">
-            <v>1.3417070000000013</v>
-          </cell>
-          <cell r="C56">
-            <v>26.587</v>
-          </cell>
-          <cell r="G56">
-            <v>1.3716450000000009</v>
-          </cell>
-          <cell r="H56">
-            <v>15.206</v>
-          </cell>
-        </row>
-        <row r="57">
-          <cell r="B57">
-            <v>1.356439</v>
-          </cell>
-          <cell r="C57">
-            <v>14.733000000000001</v>
-          </cell>
-          <cell r="G57">
-            <v>1.3893810000000002</v>
-          </cell>
-          <cell r="H57">
-            <v>17.734999999999999</v>
-          </cell>
-        </row>
-        <row r="58">
-          <cell r="B58">
-            <v>1.3716450000000009</v>
-          </cell>
-          <cell r="C58">
-            <v>15.206</v>
-          </cell>
-          <cell r="G58">
-            <v>1.4063020000000002</v>
-          </cell>
-          <cell r="H58">
-            <v>16.922000000000001</v>
-          </cell>
-        </row>
-        <row r="59">
-          <cell r="B59">
-            <v>1.3893810000000002</v>
-          </cell>
-          <cell r="C59">
-            <v>17.734999999999999</v>
-          </cell>
-          <cell r="G59">
-            <v>1.4216660000000001</v>
-          </cell>
-          <cell r="H59">
-            <v>15.364000000000001</v>
-          </cell>
-        </row>
-        <row r="60">
-          <cell r="B60">
-            <v>1.4063020000000002</v>
-          </cell>
-          <cell r="C60">
-            <v>16.922000000000001</v>
-          </cell>
-          <cell r="G60">
-            <v>1.4529460000000007</v>
-          </cell>
-          <cell r="H60">
-            <v>31.279</v>
-          </cell>
-        </row>
-        <row r="61">
-          <cell r="B61">
-            <v>1.4216660000000001</v>
-          </cell>
-          <cell r="C61">
-            <v>15.364000000000001</v>
-          </cell>
-          <cell r="G61">
-            <v>1.4807070000000007</v>
-          </cell>
-          <cell r="H61">
-            <v>27.762</v>
-          </cell>
-        </row>
-        <row r="62">
-          <cell r="B62">
-            <v>1.4491639999999997</v>
-          </cell>
-          <cell r="C62">
-            <v>27.498000000000001</v>
-          </cell>
-          <cell r="G62">
-            <v>1.5014260000000004</v>
-          </cell>
-          <cell r="H62">
-            <v>20.718</v>
-          </cell>
-        </row>
-        <row r="63">
-          <cell r="B63">
-            <v>1.4595420000000008</v>
-          </cell>
-          <cell r="C63">
-            <v>10.377000000000001</v>
-          </cell>
-          <cell r="G63">
-            <v>1.5311120000000003</v>
-          </cell>
-          <cell r="H63">
-            <v>29.687000000000001</v>
-          </cell>
-        </row>
-        <row r="64">
-          <cell r="B64">
-            <v>1.4807070000000007</v>
-          </cell>
-          <cell r="C64">
-            <v>21.166</v>
-          </cell>
-          <cell r="G64">
-            <v>1.5599790000000002</v>
-          </cell>
-          <cell r="H64">
-            <v>28.867000000000001</v>
-          </cell>
-        </row>
-        <row r="65">
-          <cell r="B65">
-            <v>1.5014260000000004</v>
-          </cell>
-          <cell r="C65">
-            <v>20.718</v>
-          </cell>
-          <cell r="G65">
-            <v>1.5784500000000001</v>
-          </cell>
-          <cell r="H65">
-            <v>18.471</v>
-          </cell>
-        </row>
-        <row r="66">
-          <cell r="B66">
-            <v>1.5310440000000014</v>
-          </cell>
-          <cell r="C66">
-            <v>29.617999999999999</v>
-          </cell>
-          <cell r="G66">
-            <v>1.5926939999999998</v>
-          </cell>
-          <cell r="H66">
-            <v>14.243</v>
-          </cell>
-        </row>
-        <row r="67">
-          <cell r="B67">
-            <v>1.5599790000000002</v>
-          </cell>
-          <cell r="C67">
-            <v>28.936</v>
-          </cell>
-          <cell r="G67">
-            <v>1.6068110000000004</v>
-          </cell>
-          <cell r="H67">
-            <v>14.117000000000001</v>
-          </cell>
-        </row>
-        <row r="68">
-          <cell r="B68">
-            <v>1.5784500000000001</v>
-          </cell>
-          <cell r="C68">
-            <v>18.471</v>
-          </cell>
-          <cell r="G68">
-            <v>1.6204429999999999</v>
-          </cell>
-          <cell r="H68">
-            <v>13.632999999999999</v>
-          </cell>
-        </row>
-        <row r="69">
-          <cell r="B69">
-            <v>1.5926939999999998</v>
-          </cell>
-          <cell r="C69">
-            <v>14.243</v>
-          </cell>
-          <cell r="G69">
-            <v>1.6347690000000004</v>
-          </cell>
-          <cell r="H69">
-            <v>14.324999999999999</v>
-          </cell>
-        </row>
-        <row r="70">
-          <cell r="B70">
-            <v>1.6068110000000004</v>
-          </cell>
-          <cell r="C70">
-            <v>14.117000000000001</v>
-          </cell>
-          <cell r="G70">
-            <v>1.6486499999999999</v>
-          </cell>
-          <cell r="H70">
-            <v>13.882</v>
-          </cell>
-        </row>
-        <row r="71">
-          <cell r="B71">
-            <v>1.6204429999999999</v>
-          </cell>
-          <cell r="C71">
-            <v>13.632999999999999</v>
-          </cell>
-          <cell r="G71">
-            <v>1.6660409999999999</v>
-          </cell>
-          <cell r="H71">
-            <v>17.390999999999998</v>
-          </cell>
-        </row>
-        <row r="72">
-          <cell r="B72">
-            <v>1.6347690000000004</v>
-          </cell>
-          <cell r="C72">
-            <v>14.324999999999999</v>
-          </cell>
-          <cell r="G72">
-            <v>1.6797140000000006</v>
-          </cell>
-          <cell r="H72">
-            <v>13.672000000000001</v>
-          </cell>
-        </row>
-        <row r="73">
-          <cell r="B73">
-            <v>1.6486499999999999</v>
-          </cell>
-          <cell r="C73">
-            <v>13.882</v>
-          </cell>
-          <cell r="G73">
-            <v>1.7030320000000003</v>
-          </cell>
-          <cell r="H73">
-            <v>23.318000000000001</v>
-          </cell>
-        </row>
-        <row r="74">
-          <cell r="B74">
-            <v>1.6660409999999999</v>
-          </cell>
-          <cell r="C74">
-            <v>17.390999999999998</v>
-          </cell>
-          <cell r="G74">
-            <v>1.7290369999999999</v>
-          </cell>
-          <cell r="H74">
-            <v>26.004999999999999</v>
-          </cell>
-        </row>
-        <row r="75">
-          <cell r="B75">
-            <v>1.6797140000000006</v>
-          </cell>
-          <cell r="C75">
-            <v>13.672000000000001</v>
-          </cell>
-          <cell r="G75">
-            <v>1.7429140000000007</v>
-          </cell>
-          <cell r="H75">
-            <v>13.877000000000001</v>
-          </cell>
-        </row>
-        <row r="76">
-          <cell r="B76">
-            <v>1.7030320000000003</v>
-          </cell>
-          <cell r="C76">
-            <v>23.318000000000001</v>
-          </cell>
-          <cell r="G76">
-            <v>1.75732</v>
-          </cell>
-          <cell r="H76">
-            <v>14.407</v>
-          </cell>
-        </row>
-        <row r="77">
-          <cell r="B77">
-            <v>1.7290369999999999</v>
-          </cell>
-          <cell r="C77">
-            <v>26.004999999999999</v>
-          </cell>
-          <cell r="G77">
-            <v>1.7789230000000007</v>
-          </cell>
-          <cell r="H77">
-            <v>21.602</v>
-          </cell>
-        </row>
-        <row r="78">
-          <cell r="B78">
-            <v>1.7429140000000007</v>
-          </cell>
-          <cell r="C78">
-            <v>13.877000000000001</v>
-          </cell>
-          <cell r="G78">
-            <v>1.8150110000000002</v>
-          </cell>
-          <cell r="H78">
-            <v>36.088000000000001</v>
-          </cell>
-        </row>
-        <row r="79">
-          <cell r="B79">
-            <v>1.75732</v>
-          </cell>
-          <cell r="C79">
-            <v>14.407</v>
-          </cell>
-          <cell r="G79">
-            <v>1.8360310000000002</v>
-          </cell>
-          <cell r="H79">
-            <v>21.02</v>
-          </cell>
-        </row>
-        <row r="80">
-          <cell r="B80">
-            <v>1.7789230000000007</v>
-          </cell>
-          <cell r="C80">
-            <v>21.602</v>
-          </cell>
-          <cell r="G80">
-            <v>1.8519850000000009</v>
-          </cell>
-          <cell r="H80">
-            <v>15.954000000000001</v>
-          </cell>
-        </row>
-        <row r="81">
-          <cell r="B81">
-            <v>1.8150110000000002</v>
-          </cell>
-          <cell r="C81">
-            <v>36.088000000000001</v>
-          </cell>
-          <cell r="G81">
-            <v>1.8791080000000004</v>
-          </cell>
-          <cell r="H81">
-            <v>27.123999999999999</v>
-          </cell>
-        </row>
-        <row r="82">
-          <cell r="B82">
-            <v>1.8360310000000002</v>
-          </cell>
-          <cell r="C82">
-            <v>21.02</v>
-          </cell>
-          <cell r="G82">
-            <v>1.9000580000000014</v>
-          </cell>
-          <cell r="H82">
-            <v>20.949000000000002</v>
-          </cell>
-        </row>
-        <row r="83">
-          <cell r="B83">
-            <v>1.8519850000000009</v>
-          </cell>
-          <cell r="C83">
-            <v>15.954000000000001</v>
-          </cell>
-          <cell r="G83">
-            <v>1.9308600000000009</v>
-          </cell>
-          <cell r="H83">
-            <v>30.802</v>
-          </cell>
-        </row>
-        <row r="84">
-          <cell r="B84">
-            <v>1.8783820000000002</v>
-          </cell>
-          <cell r="C84">
-            <v>26.396999999999998</v>
-          </cell>
-          <cell r="G84">
-            <v>1.9702750000000009</v>
-          </cell>
-          <cell r="H84">
-            <v>39.415999999999997</v>
-          </cell>
-        </row>
-        <row r="85">
-          <cell r="B85">
-            <v>1.8996070000000014</v>
-          </cell>
-          <cell r="C85">
-            <v>21.225999999999999</v>
-          </cell>
-          <cell r="G85">
-            <v>1.9998210000000007</v>
-          </cell>
-          <cell r="H85">
-            <v>29.545000000000002</v>
-          </cell>
-        </row>
-        <row r="86">
-          <cell r="B86">
-            <v>1.9308600000000009</v>
-          </cell>
-          <cell r="C86">
-            <v>31.251999999999999</v>
-          </cell>
-          <cell r="G86">
-            <v>2.0349409999999999</v>
-          </cell>
-          <cell r="H86">
-            <v>35.119999999999997</v>
-          </cell>
-        </row>
-        <row r="87">
-          <cell r="B87">
-            <v>1.9702750000000009</v>
-          </cell>
-          <cell r="C87">
-            <v>39.415999999999997</v>
-          </cell>
-          <cell r="G87">
-            <v>2.0533999999999999</v>
-          </cell>
-          <cell r="H87">
-            <v>18.459</v>
-          </cell>
-        </row>
-        <row r="88">
-          <cell r="B88">
-            <v>1.9998210000000007</v>
-          </cell>
-          <cell r="C88">
-            <v>29.545000000000002</v>
-          </cell>
-          <cell r="G88">
-            <v>2.0729439999999997</v>
-          </cell>
-          <cell r="H88">
-            <v>19.545000000000002</v>
-          </cell>
-        </row>
-        <row r="89">
-          <cell r="B89">
-            <v>2.0349409999999999</v>
-          </cell>
-          <cell r="C89">
-            <v>35.119999999999997</v>
-          </cell>
-          <cell r="G89">
-            <v>2.0989820000000012</v>
-          </cell>
-          <cell r="H89">
-            <v>26.038</v>
-          </cell>
-        </row>
-        <row r="90">
-          <cell r="B90">
-            <v>2.0533999999999999</v>
-          </cell>
-          <cell r="C90">
-            <v>18.459</v>
-          </cell>
-          <cell r="G90">
-            <v>2.1201100000000004</v>
-          </cell>
-          <cell r="H90">
-            <v>21.126999999999999</v>
-          </cell>
-        </row>
-        <row r="91">
-          <cell r="B91">
-            <v>2.0729439999999997</v>
-          </cell>
-          <cell r="C91">
-            <v>19.545000000000002</v>
-          </cell>
-          <cell r="G91">
-            <v>2.131177000000001</v>
-          </cell>
-          <cell r="H91">
-            <v>11.067</v>
-          </cell>
-        </row>
-        <row r="92">
-          <cell r="B92">
-            <v>2.0989820000000012</v>
-          </cell>
-          <cell r="C92">
-            <v>26.038</v>
-          </cell>
-          <cell r="G92">
-            <v>2.1477440000000012</v>
-          </cell>
-          <cell r="H92">
-            <v>16.567</v>
-          </cell>
-        </row>
-        <row r="93">
-          <cell r="B93">
-            <v>2.1201100000000004</v>
-          </cell>
-          <cell r="C93">
-            <v>21.126999999999999</v>
-          </cell>
-          <cell r="G93">
-            <v>2.1644579999999998</v>
-          </cell>
-          <cell r="H93">
-            <v>16.713999999999999</v>
-          </cell>
-        </row>
-        <row r="94">
-          <cell r="B94">
-            <v>2.131177000000001</v>
-          </cell>
-          <cell r="C94">
-            <v>11.067</v>
-          </cell>
-          <cell r="G94">
-            <v>2.1799420000000005</v>
-          </cell>
-          <cell r="H94">
-            <v>15.484999999999999</v>
-          </cell>
-        </row>
-        <row r="95">
-          <cell r="B95">
-            <v>2.1477440000000012</v>
-          </cell>
-          <cell r="C95">
-            <v>16.567</v>
-          </cell>
-          <cell r="G95">
-            <v>2.2090530000000008</v>
-          </cell>
-          <cell r="H95">
-            <v>29.11</v>
-          </cell>
-        </row>
-        <row r="96">
-          <cell r="B96">
-            <v>2.1644579999999998</v>
-          </cell>
-          <cell r="C96">
-            <v>16.713999999999999</v>
-          </cell>
-          <cell r="G96">
-            <v>2.2304820000000003</v>
-          </cell>
-          <cell r="H96">
-            <v>21.43</v>
-          </cell>
-        </row>
-        <row r="97">
-          <cell r="B97">
-            <v>2.1799420000000005</v>
-          </cell>
-          <cell r="C97">
-            <v>15.484999999999999</v>
-          </cell>
-          <cell r="G97">
-            <v>2.2587349999999997</v>
-          </cell>
-          <cell r="H97">
-            <v>28.253</v>
-          </cell>
-        </row>
-        <row r="98">
-          <cell r="B98">
-            <v>2.2090530000000008</v>
-          </cell>
-          <cell r="C98">
-            <v>29.11</v>
-          </cell>
-          <cell r="G98">
-            <v>2.288844000000001</v>
-          </cell>
-          <cell r="H98">
-            <v>30.109000000000002</v>
-          </cell>
-        </row>
-        <row r="99">
-          <cell r="B99">
-            <v>2.2237020000000012</v>
-          </cell>
-          <cell r="C99">
-            <v>14.65</v>
-          </cell>
-          <cell r="G99">
-            <v>2.3089279999999999</v>
-          </cell>
-          <cell r="H99">
-            <v>20.082999999999998</v>
-          </cell>
-        </row>
-        <row r="100">
-          <cell r="B100">
-            <v>2.2443380000000008</v>
-          </cell>
-          <cell r="C100">
-            <v>20.635000000000002</v>
-          </cell>
-          <cell r="G100">
-            <v>2.3234640000000013</v>
-          </cell>
-          <cell r="H100">
-            <v>14.537000000000001</v>
-          </cell>
-        </row>
-        <row r="101">
-          <cell r="B101">
-            <v>2.2587349999999997</v>
-          </cell>
-          <cell r="C101">
-            <v>14.398</v>
-          </cell>
-          <cell r="G101">
-            <v>2.3551870000000008</v>
-          </cell>
-          <cell r="H101">
-            <v>31.722999999999999</v>
-          </cell>
-        </row>
-        <row r="102">
-          <cell r="B102">
-            <v>2.288844000000001</v>
-          </cell>
-          <cell r="C102">
-            <v>30.109000000000002</v>
-          </cell>
-          <cell r="G102">
-            <v>2.3993510000000011</v>
-          </cell>
-          <cell r="H102">
-            <v>44.164000000000001</v>
-          </cell>
-        </row>
-        <row r="103">
-          <cell r="B103">
-            <v>2.3089279999999999</v>
-          </cell>
-          <cell r="C103">
-            <v>20.082999999999998</v>
-          </cell>
-          <cell r="G103">
-            <v>2.4200429999999997</v>
-          </cell>
-          <cell r="H103">
-            <v>20.690999999999999</v>
-          </cell>
-        </row>
-        <row r="104">
-          <cell r="B104">
-            <v>2.3234640000000013</v>
-          </cell>
-          <cell r="C104">
-            <v>14.537000000000001</v>
-          </cell>
-          <cell r="G104">
-            <v>2.4336720000000014</v>
-          </cell>
-          <cell r="H104">
-            <v>13.629</v>
-          </cell>
-        </row>
-        <row r="105">
-          <cell r="B105">
-            <v>2.3551870000000008</v>
-          </cell>
-          <cell r="C105">
-            <v>31.722999999999999</v>
-          </cell>
-          <cell r="G105">
-            <v>2.4476860000000009</v>
-          </cell>
-          <cell r="H105">
-            <v>14.015000000000001</v>
-          </cell>
-        </row>
-        <row r="106">
-          <cell r="B106">
-            <v>2.3993510000000011</v>
-          </cell>
-          <cell r="C106">
-            <v>44.164000000000001</v>
-          </cell>
-          <cell r="G106">
-            <v>2.4617120000000003</v>
-          </cell>
-          <cell r="H106">
-            <v>14.026</v>
-          </cell>
-        </row>
-        <row r="107">
-          <cell r="B107">
-            <v>2.4200429999999997</v>
-          </cell>
-          <cell r="C107">
-            <v>20.690999999999999</v>
-          </cell>
-          <cell r="G107">
-            <v>2.4958989999999996</v>
-          </cell>
-          <cell r="H107">
-            <v>34.186</v>
-          </cell>
-        </row>
-        <row r="108">
-          <cell r="B108">
-            <v>2.4336720000000014</v>
-          </cell>
-          <cell r="C108">
-            <v>13.629</v>
-          </cell>
-          <cell r="G108">
-            <v>2.5240130000000001</v>
-          </cell>
-          <cell r="H108">
-            <v>28.114000000000001</v>
-          </cell>
-        </row>
-        <row r="109">
-          <cell r="B109">
-            <v>2.4476860000000009</v>
-          </cell>
-          <cell r="C109">
-            <v>14.015000000000001</v>
-          </cell>
-          <cell r="G109">
-            <v>2.5387710000000006</v>
-          </cell>
-          <cell r="H109">
-            <v>14.759</v>
-          </cell>
-        </row>
-        <row r="110">
-          <cell r="B110">
-            <v>2.4617120000000003</v>
-          </cell>
-          <cell r="C110">
-            <v>14.026</v>
-          </cell>
-          <cell r="G110">
-            <v>2.5549680000000006</v>
-          </cell>
-          <cell r="H110">
-            <v>16.196999999999999</v>
-          </cell>
-        </row>
-        <row r="111">
-          <cell r="B111">
-            <v>2.4958989999999996</v>
-          </cell>
-          <cell r="C111">
-            <v>34.186</v>
-          </cell>
-          <cell r="G111">
-            <v>2.5757030000000007</v>
-          </cell>
-          <cell r="H111">
-            <v>20.734999999999999</v>
-          </cell>
-        </row>
-        <row r="112">
-          <cell r="B112">
-            <v>2.5240130000000001</v>
-          </cell>
-          <cell r="C112">
-            <v>28.114000000000001</v>
-          </cell>
-        </row>
-        <row r="113">
-          <cell r="B113">
-            <v>2.5387710000000006</v>
-          </cell>
-          <cell r="C113">
-            <v>14.759</v>
-          </cell>
-        </row>
-        <row r="114">
-          <cell r="B114">
-            <v>2.5549680000000006</v>
-          </cell>
-          <cell r="C114">
-            <v>16.196999999999999</v>
-          </cell>
-        </row>
-        <row r="115">
-          <cell r="B115">
-            <v>2.5757030000000007</v>
-          </cell>
-          <cell r="C115">
-            <v>20.734999999999999</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -10044,14 +8553,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02437C0D-00FD-4B74-96FB-66F97659E713}">
-  <dimension ref="A3:M951"/>
+  <dimension ref="A1:M951"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A125" workbookViewId="0">
-      <selection activeCell="R136" sqref="R136"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
+    <row r="1" spans="1:8" ht="21" x14ac:dyDescent="0.4">
+      <c r="A1" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>0</v>
